--- a/Notion data/Lũy kế ngày CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế ngày CẦN THƠ.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU132"/>
+  <dimension ref="A1:AU133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d2cc9401-0eb7-48c0-a84b-326b18eda225</t>
+          <t>e2885197-7ab0-4865-a999-a4f9f644f9cb</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-24T12:01:00.000Z</t>
+          <t>2024-07-25T02:19:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-d2cc94010eb748c0a84b326b18eda225</t>
+          <t>https://www.notion.so/1-e28851977ab04865a999a4f9f644f9cb</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ea14762f-9b0c-4b81-9813-1ec2fbdd9834</t>
+          <t>d2cc9401-0eb7-48c0-a84b-326b18eda225</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-23T10:21:00.000Z</t>
+          <t>2024-07-24T12:01:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-ea14762f9b0c4b8198131ec2fbdd9834</t>
+          <t>https://www.notion.so/2-d2cc94010eb748c0a84b326b18eda225</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3b6a7eef-b2af-43a5-8dd4-9cd96a2a70de</t>
+          <t>ea14762f-9b0c-4b81-9813-1ec2fbdd9834</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-23T09:35:00.000Z</t>
+          <t>2024-07-23T10:21:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-3b6a7eefb2af43a58dd49cd96a2a70de</t>
+          <t>https://www.notion.so/3-ea14762f9b0c4b8198131ec2fbdd9834</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3d171c92-a92b-4bc3-bc61-8e289466331c</t>
+          <t>3b6a7eef-b2af-43a5-8dd4-9cd96a2a70de</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-3d171c92a92b4bc3bc618e289466331c</t>
+          <t>https://www.notion.so/4-3b6a7eefb2af43a58dd49cd96a2a70de</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1778a0d0-fb4f-482c-8bfa-0653290db9ee</t>
+          <t>3d171c92-a92b-4bc3-bc61-8e289466331c</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-1778a0d0fb4f482c8bfa0653290db9ee</t>
+          <t>https://www.notion.so/5-3d171c92a92b4bc3bc618e289466331c</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>347553b9-8b91-4fee-bb08-ce733114339a</t>
+          <t>1778a0d0-fb4f-482c-8bfa-0653290db9ee</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-21T11:23:00.000Z</t>
+          <t>2024-07-23T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-347553b98b914feebb08ce733114339a</t>
+          <t>https://www.notion.so/6-1778a0d0fb4f482c8bfa0653290db9ee</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>b082e00e-ddd2-4bb2-8b05-445bca368ce8</t>
+          <t>347553b9-8b91-4fee-bb08-ce733114339a</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-20T09:29:00.000Z</t>
+          <t>2024-07-21T11:23:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-b082e00eddd24bb28b05445bca368ce8</t>
+          <t>https://www.notion.so/7-347553b98b914feebb08ce733114339a</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
+          <t>b082e00e-ddd2-4bb2-8b05-445bca368ce8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-19T11:16:00.000Z</t>
+          <t>2024-07-20T09:29:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-bd704b63037549549bbb1c8ada21f9d0</t>
+          <t>https://www.notion.so/8-b082e00eddd24bb28b05445bca368ce8</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
+          <t>bd704b63-0375-4954-9bbb-1c8ada21f9d0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-18T08:32:00.000Z</t>
+          <t>2024-07-19T11:16:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-9c92ffe164b74a078e5d0eed447a2d19</t>
+          <t>https://www.notion.so/9-bd704b63037549549bbb1c8ada21f9d0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
+          <t>9c92ffe1-64b7-4a07-8e5d-0eed447a2d19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:36:00.000Z</t>
+          <t>2024-07-18T08:32:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-db5c8611a0ec48eb9c224ab757ce3346</t>
+          <t>https://www.notion.so/10-9c92ffe164b74a078e5d0eed447a2d19</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
+          <t>db5c8611-a0ec-48eb-9c22-4ab757ce3346</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-42eafb70bcc14d3184bf2619bd50ff35</t>
+          <t>https://www.notion.so/11-db5c8611a0ec48eb9c224ab757ce3346</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
+          <t>42eafb70-bcc1-4d31-84bf-2619bd50ff35</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-a7f4933d55a346698c8624e939f755e4</t>
+          <t>https://www.notion.so/12-42eafb70bcc14d3184bf2619bd50ff35</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
+          <t>a7f4933d-55a3-4669-8c86-24e939f755e4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-17T12:18:00.000Z</t>
+          <t>2024-07-17T17:36:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-8d6b7d264edc4e68a38e7790fd01614c</t>
+          <t>https://www.notion.so/13-a7f4933d55a346698c8624e939f755e4</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
+          <t>8d6b7d26-4edc-4e68-a38e-7790fd01614c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-15T05:35:00.000Z</t>
+          <t>2024-07-17T12:18:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-aaae0f514d8543528801b3fdc3f76c2e</t>
+          <t>https://www.notion.so/14-8d6b7d264edc4e68a38e7790fd01614c</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
+          <t>aaae0f51-4d85-4352-8801-b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-14T05:02:00.000Z</t>
+          <t>2024-07-15T05:35:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-0617fdee2b714953b6260f55f7915fd5</t>
+          <t>https://www.notion.so/15-aaae0f514d8543528801b3fdc3f76c2e</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
+          <t>0617fdee-2b71-4953-b626-0f55f7915fd5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-13T15:30:00.000Z</t>
+          <t>2024-07-14T05:02:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-97ddd288bcfd49569e45669354aba2f6</t>
+          <t>https://www.notion.so/16-0617fdee2b714953b6260f55f7915fd5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
+          <t>97ddd288-bcfd-4956-9e45-669354aba2f6</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-12T03:28:00.000Z</t>
+          <t>2024-07-13T15:30:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-0730d559ddf24fe7885ca504f9f28a9b</t>
+          <t>https://www.notion.so/17-97ddd288bcfd49569e45669354aba2f6</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
+          <t>0730d559-ddf2-4fe7-885c-a504f9f28a9b</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-07-10T03:18:00.000Z</t>
+          <t>2024-07-12T03:28:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-c933e0ebdd5b470baec541fbc163f599</t>
+          <t>https://www.notion.so/18-0730d559ddf24fe7885ca504f9f28a9b</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
+          <t>c933e0eb-dd5b-470b-aec5-41fbc163f599</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-07-09T16:05:00.000Z</t>
+          <t>2024-07-10T03:18:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-ccdd307eb18b4ed69da0b300e46092f4</t>
+          <t>https://www.notion.so/19-c933e0ebdd5b470baec541fbc163f599</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
+          <t>ccdd307e-b18b-4ed6-9da0-b300e46092f4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-07-08T14:18:00.000Z</t>
+          <t>2024-07-09T16:05:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-7a0e8fe12018470c95fbb8d82312e72a</t>
+          <t>https://www.notion.so/20-ccdd307eb18b4ed69da0b300e46092f4</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
+          <t>7a0e8fe1-2018-470c-95fb-b8d82312e72a</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-07-07T12:13:00.000Z</t>
+          <t>2024-07-08T14:18:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-8436b303df7c489c989b06cd1c2a9683</t>
+          <t>https://www.notion.so/21-7a0e8fe12018470c95fbb8d82312e72a</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
+          <t>8436b303-df7c-489c-989b-06cd1c2a9683</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-6442fa01562f41039b018aa5741e4802</t>
+          <t>https://www.notion.so/22-8436b303df7c489c989b06cd1c2a9683</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
+          <t>6442fa01-562f-4103-9b01-8aa5741e4802</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-07-04T10:52:00.000Z</t>
+          <t>2024-07-07T12:13:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-5395834b61a2463b847fc7d1d0bed8f6</t>
+          <t>https://www.notion.so/23-6442fa01562f41039b018aa5741e4802</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
+          <t>5395834b-61a2-463b-847f-c7d1d0bed8f6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-07-02T21:32:00.000Z</t>
+          <t>2024-07-04T10:52:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-e7a195146e0b4f84851f8eeef70f2fd7</t>
+          <t>https://www.notion.so/24-5395834b61a2463b847fc7d1d0bed8f6</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,17 +5454,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
+          <t>e7a19514-6e0b-4f84-851f-8eeef70f2fd7</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-07-02T16:37:00.000Z</t>
+          <t>2024-07-02T21:32:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-4e956c66c56d48e0a94e770f2a14fcd4</t>
+          <t>https://www.notion.so/25-e7a195146e0b4f84851f8eeef70f2fd7</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,17 +5653,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
+          <t>4e956c66-c56d-48e0-a94e-770f2a14fcd4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-07-01T14:25:00.000Z</t>
+          <t>2024-07-02T16:37:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-d916ccf252d34410be2c48b835b28092</t>
+          <t>https://www.notion.so/26-4e956c66c56d48e0a94e770f2a14fcd4</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
+          <t>d916ccf2-52d3-4410-be2c-48b835b28092</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-30T15:05:00.000Z</t>
+          <t>2024-07-01T14:25:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-fe45d7bd6e8d4e758b41a545ca37284b</t>
+          <t>https://www.notion.so/27-d916ccf252d34410be2c48b835b28092</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,17 +6051,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
+          <t>fe45d7bd-6e8d-4e75-8b41-a545ca37284b</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-06-29T09:35:00.000Z</t>
+          <t>2024-06-30T15:05:00.000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-a782c44e6bd94f6f97910d56f4701144</t>
+          <t>https://www.notion.so/28-fe45d7bd6e8d4e758b41a545ca37284b</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,17 +6250,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
+          <t>a782c44e-6bd9-4f6f-9791-0d56f4701144</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-06-28T13:59:00.000Z</t>
+          <t>2024-06-29T09:35:00.000Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-e55892c67e5c4da388234b7400a2c426</t>
+          <t>https://www.notion.so/29-a782c44e6bd94f6f97910d56f4701144</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,17 +6449,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
+          <t>e55892c6-7e5c-4da3-8823-4b7400a2c426</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-06-27T16:20:00.000Z</t>
+          <t>2024-06-28T13:59:00.000Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-34c450788cfd465b9ac12c592f485be9</t>
+          <t>https://www.notion.so/30-e55892c67e5c4da388234b7400a2c426</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,17 +6648,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
+          <t>34c45078-8cfd-465b-9ac1-2c592f485be9</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-27T13:13:00.000Z</t>
+          <t>2024-06-27T16:20:00.000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-7d5475d81cf94a31817577a91b1d6821</t>
+          <t>https://www.notion.so/31-34c450788cfd465b9ac12c592f485be9</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,17 +6847,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
+          <t>7d5475d8-1cf9-4a31-8175-77a91b1d6821</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-06-27T02:14:00.000Z</t>
+          <t>2024-06-27T13:13:00.000Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-392b89e1e026401083b114dc8548c520</t>
+          <t>https://www.notion.so/32-7d5475d81cf94a31817577a91b1d6821</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,17 +7046,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
+          <t>392b89e1-e026-4010-83b1-14dc8548c520</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-06-25T09:26:00.000Z</t>
+          <t>2024-06-27T02:14:00.000Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-24T16:01:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-2f84e5ec07e44b24b0bcef90e98b33d5</t>
+          <t>https://www.notion.so/33-392b89e1e026401083b114dc8548c520</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7080,7 +7080,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
+          <t>2f84e5ec-07e4-4b24-b0bc-ef90e98b33d5</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-52f91de14fd84c838e4d679d7bdcc881</t>
+          <t>https://www.notion.so/34-2f84e5ec07e44b24b0bcef90e98b33d5</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
+          <t>52f91de1-4fd8-4c83-8e4d-679d7bdcc881</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-5a9e3a51f92846569ab98fd3f679bd7d</t>
+          <t>https://www.notion.so/35-52f91de14fd84c838e4d679d7bdcc881</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
+          <t>5a9e3a51-f928-4656-9ab9-8fd3f679bd7d</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-4bc113ade36f4a5bb9c347f0d8fa9483</t>
+          <t>https://www.notion.so/36-5a9e3a51f92846569ab98fd3f679bd7d</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
+          <t>4bc113ad-e36f-4a5b-b9c3-47f0d8fa9483</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-59dbbce6813c4e81968ef894402a905c</t>
+          <t>https://www.notion.so/37-4bc113ade36f4a5bb9c347f0d8fa9483</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
+          <t>59dbbce6-813c-4e81-968e-f894402a905c</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-5b3aba239f214c9590350a484156357e</t>
+          <t>https://www.notion.so/38-59dbbce6813c4e81968ef894402a905c</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
+          <t>5b3aba23-9f21-4c95-9035-0a484156357e</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-63f85e62af8c408e9daf5a9a6f2302fb</t>
+          <t>https://www.notion.so/39-5b3aba239f214c9590350a484156357e</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
+          <t>63f85e62-af8c-408e-9daf-5a9a6f2302fb</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-737a5be1ee1541cb986e20a11a920b1e</t>
+          <t>https://www.notion.so/40-63f85e62af8c408e9daf5a9a6f2302fb</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
+          <t>737a5be1-ee15-41cb-986e-20a11a920b1e</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
+          <t>https://www.notion.so/41-737a5be1ee1541cb986e20a11a920b1e</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
+          <t>743e6f5c-2e3c-4ab3-ac49-de8f1bef59b5</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-ccf9a743cf2c4219bac2a35ef088689b</t>
+          <t>https://www.notion.so/42-743e6f5c2e3c4ab3ac49de8f1bef59b5</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
+          <t>ccf9a743-cf2c-4219-bac2-a35ef088689b</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-e773fe355b3f48a68cd11dafda818501</t>
+          <t>https://www.notion.so/43-ccf9a743cf2c4219bac2a35ef088689b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
+          <t>e773fe35-5b3f-48a6-8cd1-1dafda818501</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-f9b3b690bbe040ebbd289e5d0336ff6f</t>
+          <t>https://www.notion.so/44-e773fe355b3f48a68cd11dafda818501</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
+          <t>f9b3b690-bbe0-40eb-bd28-9e5d0336ff6f</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-3e0543b78e4040d086c2d6e3118dbc93</t>
+          <t>https://www.notion.so/45-f9b3b690bbe040ebbd289e5d0336ff6f</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
+          <t>3e0543b7-8e40-40d0-86c2-d6e3118dbc93</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-53bb0ed6fdff4ac094552473d60b9dc6</t>
+          <t>https://www.notion.so/46-3e0543b78e4040d086c2d6e3118dbc93</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
+          <t>53bb0ed6-fdff-4ac0-9455-2473d60b9dc6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-63721adae1f9466b98495b6955c43a66</t>
+          <t>https://www.notion.so/47-53bb0ed6fdff4ac094552473d60b9dc6</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
+          <t>63721ada-e1f9-466b-9849-5b6955c43a66</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-772db640e3c54e5f89b5a8eb24f05039</t>
+          <t>https://www.notion.so/48-63721adae1f9466b98495b6955c43a66</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
+          <t>772db640-e3c5-4e5f-89b5-a8eb24f05039</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-78474f682686412fa1724b22a4f46958</t>
+          <t>https://www.notion.so/49-772db640e3c54e5f89b5a8eb24f05039</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
+          <t>78474f68-2686-412f-a172-4b22a4f46958</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-aa7b036608e44f5b9c2df00564f071b9</t>
+          <t>https://www.notion.so/50-78474f682686412fa1724b22a4f46958</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
+          <t>aa7b0366-08e4-4f5b-9c2d-f00564f071b9</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
+          <t>https://www.notion.so/51-aa7b036608e44f5b9c2df00564f071b9</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
+          <t>b3d7a8ec-9adf-4d39-9caa-6864aa4c65e3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-b624a950bebd404f84634ddc4b83efa4</t>
+          <t>https://www.notion.so/52-b3d7a8ec9adf4d399caa6864aa4c65e3</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
+          <t>b624a950-bebd-404f-8463-4ddc4b83efa4</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-e011e118d9a343749b4b6c5035d8d76a</t>
+          <t>https://www.notion.so/53-b624a950bebd404f84634ddc4b83efa4</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>06097b75-925b-488a-805c-597895a59893</t>
+          <t>e011e118-d9a3-4374-9b4b-6c5035d8d76a</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-06097b75925b488a805c597895a59893</t>
+          <t>https://www.notion.so/54-e011e118d9a343749b4b6c5035d8d76a</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
+          <t>06097b75-925b-488a-805c-597895a59893</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
+          <t>https://www.notion.so/55-06097b75925b488a805c597895a59893</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
+          <t>1bf8b2d3-f1ec-4cca-9bfd-bd65d6f7c684</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-295a44f6ca9d4aa6865cbc97a63ed49f</t>
+          <t>https://www.notion.so/56-1bf8b2d3f1ec4cca9bfdbd65d6f7c684</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
+          <t>295a44f6-ca9d-4aa6-865c-bc97a63ed49f</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-2fcd17a168234616b1f931622834ed19</t>
+          <t>https://www.notion.so/57-295a44f6ca9d4aa6865cbc97a63ed49f</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
+          <t>2fcd17a1-6823-4616-b1f9-31622834ed19</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-39a4cf59c21f42c8ab12f22930737df2</t>
+          <t>https://www.notion.so/58-2fcd17a168234616b1f931622834ed19</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
+          <t>39a4cf59-c21f-42c8-ab12-f22930737df2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-5967f8063e81474fa3bb396088281bd4</t>
+          <t>https://www.notion.so/59-39a4cf59c21f42c8ab12f22930737df2</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
+          <t>5967f806-3e81-474f-a3bb-396088281bd4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-87f5309752064f52abc14594d8f162f0</t>
+          <t>https://www.notion.so/60-5967f8063e81474fa3bb396088281bd4</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
+          <t>87f53097-5206-4f52-abc1-4594d8f162f0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-a9baec7a15a24b22b1a554d69ba8e6c2</t>
+          <t>https://www.notion.so/61-87f5309752064f52abc14594d8f162f0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
+          <t>a9baec7a-15a2-4b22-b1a5-54d69ba8e6c2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-c745f5172a0044d2b498ac5356096152</t>
+          <t>https://www.notion.so/62-a9baec7a15a24b22b1a554d69ba8e6c2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
+          <t>c745f517-2a00-44d2-b498-ac5356096152</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-df0fa5a9e54848fba152011b467e6375</t>
+          <t>https://www.notion.so/63-c745f5172a0044d2b498ac5356096152</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
+          <t>df0fa5a9-e548-48fb-a152-011b467e6375</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-06a83616f52f4b9a8b70d067cdaf3202</t>
+          <t>https://www.notion.so/64-df0fa5a9e54848fba152011b467e6375</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
+          <t>06a83616-f52f-4b9a-8b70-d067cdaf3202</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-39cce7dee402481e8ccfda8e68d43492</t>
+          <t>https://www.notion.so/65-06a83616f52f4b9a8b70d067cdaf3202</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
+          <t>39cce7de-e402-481e-8ccf-da8e68d43492</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-4bd23e8c6cd246659e5aff1d4e62af08</t>
+          <t>https://www.notion.so/66-39cce7dee402481e8ccfda8e68d43492</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
+          <t>4bd23e8c-6cd2-4665-9e5a-ff1d4e62af08</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-527f68635d16482fac74c9ba4d5a9143</t>
+          <t>https://www.notion.so/67-4bd23e8c6cd246659e5aff1d4e62af08</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
+          <t>527f6863-5d16-482f-ac74-c9ba4d5a9143</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-645a16b0358146c883c9c261d6fde312</t>
+          <t>https://www.notion.so/68-527f68635d16482fac74c9ba4d5a9143</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
+          <t>645a16b0-3581-46c8-83c9-c261d6fde312</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-6680b008e43b478e96820998b28925ff</t>
+          <t>https://www.notion.so/69-645a16b0358146c883c9c261d6fde312</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
+          <t>6680b008-e43b-478e-9682-0998b28925ff</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-9699d5ff48ac4bac975f130433367def</t>
+          <t>https://www.notion.so/70-6680b008e43b478e96820998b28925ff</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
+          <t>9699d5ff-48ac-4bac-975f-130433367def</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-d13e1708092c4557a80eff62b2a24643</t>
+          <t>https://www.notion.so/71-9699d5ff48ac4bac975f130433367def</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
+          <t>d13e1708-092c-4557-a80e-ff62b2a24643</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-ddf1942de6a34109899e2a6536bce1f8</t>
+          <t>https://www.notion.so/72-d13e1708092c4557a80eff62b2a24643</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
+          <t>ddf1942d-e6a3-4109-899e-2a6536bce1f8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-e3fee4c2d7a54377bb9b81a4d961c61c</t>
+          <t>https://www.notion.so/73-ddf1942de6a34109899e2a6536bce1f8</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
+          <t>e3fee4c2-d7a5-4377-bb9b-81a4d961c61c</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-24T16:02:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-2af88d4623c84d95b76fc87a630b9054</t>
+          <t>https://www.notion.so/74-e3fee4c2d7a54377bb9b81a4d961c61c</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
+          <t>2af88d46-23c8-4d95-b76f-c87a630b9054</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-347ec2e381c54a778fc7a8ac05867d60</t>
+          <t>https://www.notion.so/75-2af88d4623c84d95b76fc87a630b9054</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
+          <t>347ec2e3-81c5-4a77-8fc7-a8ac05867d60</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-3c5774ced68547909dcc601b516ca4af</t>
+          <t>https://www.notion.so/76-347ec2e381c54a778fc7a8ac05867d60</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
+          <t>3c5774ce-d685-4790-9dcc-601b516ca4af</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-547c0b51453c4aa1a58774b6d5dd3f1a</t>
+          <t>https://www.notion.so/77-3c5774ced68547909dcc601b516ca4af</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
+          <t>547c0b51-453c-4aa1-a587-74b6d5dd3f1a</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-930db29f743a4c618e74c3b56ba5a0ce</t>
+          <t>https://www.notion.so/78-547c0b51453c4aa1a58774b6d5dd3f1a</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
+          <t>930db29f-743a-4c61-8e74-c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-b15c39801fdb479b8be4aa3d4e13a66c</t>
+          <t>https://www.notion.so/79-930db29f743a4c618e74c3b56ba5a0ce</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
+          <t>b15c3980-1fdb-479b-8be4-aa3d4e13a66c</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
+          <t>https://www.notion.so/80-b15c39801fdb479b8be4aa3d4e13a66c</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
+          <t>bf5d0a70-fd41-427e-9cef-b49b9a7e6f58</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-e3633d8d20f44321a192f5afa6e8d91f</t>
+          <t>https://www.notion.so/81-bf5d0a70fd41427e9cefb49b9a7e6f58</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
+          <t>e3633d8d-20f4-4321-a192-f5afa6e8d91f</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-ea36dd0d73ea45809067c8f83143240a</t>
+          <t>https://www.notion.so/82-e3633d8d20f44321a192f5afa6e8d91f</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
+          <t>ea36dd0d-73ea-4580-9067-c8f83143240a</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-0f4adb1b8c0648359cdb3d9649a277a9</t>
+          <t>https://www.notion.so/83-ea36dd0d73ea45809067c8f83143240a</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
+          <t>0f4adb1b-8c06-4835-9cdb-3d9649a277a9</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-2c3594a4e2ab4ca197daf3925855ad80</t>
+          <t>https://www.notion.so/84-0f4adb1b8c0648359cdb3d9649a277a9</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
+          <t>2c3594a4-e2ab-4ca1-97da-f3925855ad80</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17417,7 +17417,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://www.notion.so/85-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
+          <t>https://www.notion.so/85-2c3594a4e2ab4ca197daf3925855ad80</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
+          <t>33a5e9e4-881e-41c8-a8c5-2dc6881b2ea7</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-24T16:03:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17616,7 +17616,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://www.notion.so/86-37d5b2f22a054c3e9cb85c9cbe744b00</t>
+          <t>https://www.notion.so/86-33a5e9e4881e41c8a8c52dc6881b2ea7</t>
         </is>
       </c>
       <c r="J87" t="inlineStr"/>
@@ -17792,7 +17792,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
+          <t>37d5b2f2-2a05-4c3e-9cb8-5c9cbe744b00</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://www.notion.so/87-3f7c917797684c1c888528b8612459c2</t>
+          <t>https://www.notion.so/87-37d5b2f22a054c3e9cb85c9cbe744b00</t>
         </is>
       </c>
       <c r="J88" t="inlineStr"/>
@@ -17991,7 +17991,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
+          <t>3f7c9177-9768-4c1c-8885-28b8612459c2</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18014,7 +18014,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://www.notion.so/88-58997e574bcb431397a8497e9d964980</t>
+          <t>https://www.notion.so/88-3f7c917797684c1c888528b8612459c2</t>
         </is>
       </c>
       <c r="J89" t="inlineStr"/>
@@ -18190,7 +18190,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
+          <t>58997e57-4bcb-4313-97a8-497e9d964980</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://www.notion.so/89-779e4d4596fe43f3bec345641f68e7e4</t>
+          <t>https://www.notion.so/89-58997e574bcb431397a8497e9d964980</t>
         </is>
       </c>
       <c r="J90" t="inlineStr"/>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
+          <t>779e4d45-96fe-43f3-bec3-45641f68e7e4</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://www.notion.so/90-92b191de589d496595a70f646c4aac1f</t>
+          <t>https://www.notion.so/90-779e4d4596fe43f3bec345641f68e7e4</t>
         </is>
       </c>
       <c r="J91" t="inlineStr"/>
@@ -18588,7 +18588,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
+          <t>92b191de-589d-4965-95a7-0f646c4aac1f</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://www.notion.so/91-a19da822345e48159eaa47656dadde49</t>
+          <t>https://www.notion.so/91-92b191de589d496595a70f646c4aac1f</t>
         </is>
       </c>
       <c r="J92" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
+          <t>a19da822-345e-4815-9eaa-47656dadde49</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:03:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18810,7 +18810,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://www.notion.so/92-ccbc7c76c65e4060947ff54950f4d1f2</t>
+          <t>https://www.notion.so/92-a19da822345e48159eaa47656dadde49</t>
         </is>
       </c>
       <c r="J93" t="inlineStr"/>
@@ -18986,7 +18986,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
+          <t>ccbc7c76-c65e-4060-947f-f54950f4d1f2</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19009,7 +19009,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://www.notion.so/93-f461d5da5dc040d09ee04c4a3e544174</t>
+          <t>https://www.notion.so/93-ccbc7c76c65e4060947ff54950f4d1f2</t>
         </is>
       </c>
       <c r="J94" t="inlineStr"/>
@@ -19185,7 +19185,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
+          <t>f461d5da-5dc0-40d0-9ee0-4c4a3e544174</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19208,7 +19208,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://www.notion.so/94-0e78e7b3ef2949468ad9c23a53b4da6c</t>
+          <t>https://www.notion.so/94-f461d5da5dc040d09ee04c4a3e544174</t>
         </is>
       </c>
       <c r="J95" t="inlineStr"/>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
+          <t>0e78e7b3-ef29-4946-8ad9-c23a53b4da6c</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19407,7 +19407,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://www.notion.so/95-0efedcf0d5a1427b82ae489389a66625</t>
+          <t>https://www.notion.so/95-0e78e7b3ef2949468ad9c23a53b4da6c</t>
         </is>
       </c>
       <c r="J96" t="inlineStr"/>
@@ -19583,7 +19583,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
+          <t>0efedcf0-d5a1-427b-82ae-489389a66625</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19606,7 +19606,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://www.notion.so/96-2d3c378218cb4aaab48ee6efa4eb463f</t>
+          <t>https://www.notion.so/96-0efedcf0d5a1427b82ae489389a66625</t>
         </is>
       </c>
       <c r="J97" t="inlineStr"/>
@@ -19782,7 +19782,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
+          <t>2d3c3782-18cb-4aaa-b48e-e6efa4eb463f</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19805,7 +19805,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://www.notion.so/97-43d05f1f3f764c35a56a0db0a57a724c</t>
+          <t>https://www.notion.so/97-2d3c378218cb4aaab48ee6efa4eb463f</t>
         </is>
       </c>
       <c r="J98" t="inlineStr"/>
@@ -19981,7 +19981,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
+          <t>43d05f1f-3f76-4c35-a56a-0db0a57a724c</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://www.notion.so/98-777d34f48e434c2fb895bae3df7c2aad</t>
+          <t>https://www.notion.so/98-43d05f1f3f764c35a56a0db0a57a724c</t>
         </is>
       </c>
       <c r="J99" t="inlineStr"/>
@@ -20180,7 +20180,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
+          <t>777d34f4-8e43-4c2f-b895-bae3df7c2aad</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20203,7 +20203,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://www.notion.so/99-b12efaee4b914d6e8a7f291ac8902ce0</t>
+          <t>https://www.notion.so/99-777d34f48e434c2fb895bae3df7c2aad</t>
         </is>
       </c>
       <c r="J100" t="inlineStr"/>
@@ -20379,7 +20379,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
+          <t>b12efaee-4b91-4d6e-8a7f-291ac8902ce0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20402,7 +20402,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://www.notion.so/100-4ba858826e204c8cb5e0db4eb7dcb148</t>
+          <t>https://www.notion.so/100-b12efaee4b914d6e8a7f291ac8902ce0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr"/>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
+          <t>4ba85882-6e20-4c8c-b5e0-db4eb7dcb148</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20601,7 +20601,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://www.notion.so/101-516e5788099d4d99b4f94185ccacf13a</t>
+          <t>https://www.notion.so/101-4ba858826e204c8cb5e0db4eb7dcb148</t>
         </is>
       </c>
       <c r="J102" t="inlineStr"/>
@@ -20777,7 +20777,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7068474c-c815-4317-af38-9720c3766e71</t>
+          <t>516e5788-099d-4d99-b4f9-4185ccacf13a</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20800,7 +20800,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://www.notion.so/102-7068474cc8154317af389720c3766e71</t>
+          <t>https://www.notion.so/102-516e5788099d4d99b4f94185ccacf13a</t>
         </is>
       </c>
       <c r="J103" t="inlineStr"/>
@@ -20976,7 +20976,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
+          <t>7068474c-c815-4317-af38-9720c3766e71</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -20999,7 +20999,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://www.notion.so/103-73b1a91ae40b48a098c64b8294f410c3</t>
+          <t>https://www.notion.so/103-7068474cc8154317af389720c3766e71</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
+          <t>73b1a91a-e40b-48a0-98c6-4b8294f410c3</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://www.notion.so/104-97f9cfe2e9234ccfb370c71296ca2433</t>
+          <t>https://www.notion.so/104-73b1a91ae40b48a098c64b8294f410c3</t>
         </is>
       </c>
       <c r="J105" t="inlineStr"/>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
+          <t>97f9cfe2-e923-4ccf-b370-c71296ca2433</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://www.notion.so/105-a4751e1dad9c4affb14aa693c3cdb64d</t>
+          <t>https://www.notion.so/105-97f9cfe2e9234ccfb370c71296ca2433</t>
         </is>
       </c>
       <c r="J106" t="inlineStr"/>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
+          <t>a4751e1d-ad9c-4aff-b14a-a693c3cdb64d</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21596,7 +21596,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://www.notion.so/106-552383fe1f304ccaa812498242b4a1ee</t>
+          <t>https://www.notion.so/106-a4751e1dad9c4affb14aa693c3cdb64d</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
+          <t>552383fe-1f30-4cca-a812-498242b4a1ee</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-24T15:56:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21795,7 +21795,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://www.notion.so/107-624858dc7da1484dae4b00213655e72e</t>
+          <t>https://www.notion.so/107-552383fe1f304ccaa812498242b4a1ee</t>
         </is>
       </c>
       <c r="J108" t="inlineStr"/>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
+          <t>624858dc-7da1-484d-ae4b-00213655e72e</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://www.notion.so/108-6642a940268347538a561f7597e51291</t>
+          <t>https://www.notion.so/108-624858dc7da1484dae4b00213655e72e</t>
         </is>
       </c>
       <c r="J109" t="inlineStr"/>
@@ -22170,7 +22170,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
+          <t>6642a940-2683-4753-8a56-1f7597e51291</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://www.notion.so/109-76a29ccbef984e5baca434051f89c562</t>
+          <t>https://www.notion.so/109-6642a940268347538a561f7597e51291</t>
         </is>
       </c>
       <c r="J110" t="inlineStr"/>
@@ -22369,7 +22369,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
+          <t>76a29ccb-ef98-4e5b-aca4-34051f89c562</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22392,7 +22392,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://www.notion.so/110-8f6acd2f75f84a60a7612f9c866fd510</t>
+          <t>https://www.notion.so/110-76a29ccbef984e5baca434051f89c562</t>
         </is>
       </c>
       <c r="J111" t="inlineStr"/>
@@ -22568,7 +22568,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
+          <t>8f6acd2f-75f8-4a60-a761-2f9c866fd510</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22591,7 +22591,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://www.notion.so/111-a374f898aee846e7912646fcf92dad7e</t>
+          <t>https://www.notion.so/111-8f6acd2f75f84a60a7612f9c866fd510</t>
         </is>
       </c>
       <c r="J112" t="inlineStr"/>
@@ -22767,7 +22767,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
+          <t>a374f898-aee8-46e7-9126-46fcf92dad7e</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://www.notion.so/112-c0bcf57b8e35442fa9aba57763c9e325</t>
+          <t>https://www.notion.so/112-a374f898aee846e7912646fcf92dad7e</t>
         </is>
       </c>
       <c r="J113" t="inlineStr"/>
@@ -22966,7 +22966,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
+          <t>c0bcf57b-8e35-442f-a9ab-a57763c9e325</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://www.notion.so/113-ca7f48f1acec4d18bf23afe373dad0a1</t>
+          <t>https://www.notion.so/113-c0bcf57b8e35442fa9aba57763c9e325</t>
         </is>
       </c>
       <c r="J114" t="inlineStr"/>
@@ -23165,7 +23165,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
+          <t>ca7f48f1-acec-4d18-bf23-afe373dad0a1</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23188,7 +23188,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://www.notion.so/114-eeefb431b3e140238150ed014fff47f7</t>
+          <t>https://www.notion.so/114-ca7f48f1acec4d18bf23afe373dad0a1</t>
         </is>
       </c>
       <c r="J115" t="inlineStr"/>
@@ -23364,7 +23364,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
+          <t>eeefb431-b3e1-4023-8150-ed014fff47f7</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23387,7 +23387,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://www.notion.so/115-f225669da15542ef8cdb31fd7a530ab8</t>
+          <t>https://www.notion.so/115-eeefb431b3e140238150ed014fff47f7</t>
         </is>
       </c>
       <c r="J116" t="inlineStr"/>
@@ -23563,7 +23563,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
+          <t>f225669d-a155-42ef-8cdb-31fd7a530ab8</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23586,7 +23586,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://www.notion.so/116-34b97b8c285b4d76bf9d1568f645d6c5</t>
+          <t>https://www.notion.so/116-f225669da15542ef8cdb31fd7a530ab8</t>
         </is>
       </c>
       <c r="J117" t="inlineStr"/>
@@ -23762,7 +23762,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>5a18478d-a522-45c2-9e43-032974690527</t>
+          <t>34b97b8c-285b-4d76-bf9d-1568f645d6c5</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23785,7 +23785,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://www.notion.so/117-5a18478da52245c29e43032974690527</t>
+          <t>https://www.notion.so/117-34b97b8c285b4d76bf9d1568f645d6c5</t>
         </is>
       </c>
       <c r="J118" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
+          <t>5a18478d-a522-45c2-9e43-032974690527</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -23984,7 +23984,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://www.notion.so/118-650732c65fad4de7a252544d44b48650</t>
+          <t>https://www.notion.so/118-5a18478da52245c29e43032974690527</t>
         </is>
       </c>
       <c r="J119" t="inlineStr"/>
@@ -24160,7 +24160,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
+          <t>650732c6-5fad-4de7-a252-544d44b48650</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24183,7 +24183,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://www.notion.so/119-844ddd9f02b64958b1c89b53ce84cab6</t>
+          <t>https://www.notion.so/119-650732c65fad4de7a252544d44b48650</t>
         </is>
       </c>
       <c r="J120" t="inlineStr"/>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
+          <t>844ddd9f-02b6-4958-b1c8-9b53ce84cab6</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24382,7 +24382,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://www.notion.so/120-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
+          <t>https://www.notion.so/120-844ddd9f02b64958b1c89b53ce84cab6</t>
         </is>
       </c>
       <c r="J121" t="inlineStr"/>
@@ -24558,7 +24558,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
+          <t>8c8db8c1-6c4d-46b5-a4f7-ad5968559f1b</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://www.notion.so/121-90bebc722e01463d8665522d21d07808</t>
+          <t>https://www.notion.so/121-8c8db8c16c4d46b5a4f7ad5968559f1b</t>
         </is>
       </c>
       <c r="J122" t="inlineStr"/>
@@ -24757,7 +24757,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
+          <t>90bebc72-2e01-463d-8665-522d21d07808</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://www.notion.so/122-a675a1975fde48f0bd3da055d136af68</t>
+          <t>https://www.notion.so/122-90bebc722e01463d8665522d21d07808</t>
         </is>
       </c>
       <c r="J123" t="inlineStr"/>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
+          <t>a675a197-5fde-48f0-bd3d-a055d136af68</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -24979,7 +24979,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://www.notion.so/123-bdf09569481c49b0a4e33ea1e03dd723</t>
+          <t>https://www.notion.so/123-a675a1975fde48f0bd3da055d136af68</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -25155,7 +25155,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
+          <t>bdf09569-481c-49b0-a4e3-3ea1e03dd723</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25178,7 +25178,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://www.notion.so/124-ec32e03e445d4553bb06b880d2cd2412</t>
+          <t>https://www.notion.so/124-bdf09569481c49b0a4e33ea1e03dd723</t>
         </is>
       </c>
       <c r="J125" t="inlineStr"/>
@@ -25354,7 +25354,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
+          <t>ec32e03e-445d-4553-bb06-b880d2cd2412</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25377,7 +25377,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://www.notion.so/125-f8405cf362b34ea19fa06440f290bed6</t>
+          <t>https://www.notion.so/125-ec32e03e445d4553bb06b880d2cd2412</t>
         </is>
       </c>
       <c r="J126" t="inlineStr"/>
@@ -25553,7 +25553,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
+          <t>f8405cf3-62b3-4ea1-9fa0-6440f290bed6</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25576,7 +25576,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://www.notion.so/126-1a86e25a53c646128e08b97c9dba0ec1</t>
+          <t>https://www.notion.so/126-f8405cf362b34ea19fa06440f290bed6</t>
         </is>
       </c>
       <c r="J127" t="inlineStr"/>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
+          <t>1a86e25a-53c6-4612-8e08-b97c9dba0ec1</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25775,7 +25775,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://www.notion.so/127-1f504c07c08148d59f0b4f793bd71da1</t>
+          <t>https://www.notion.so/127-1a86e25a53c646128e08b97c9dba0ec1</t>
         </is>
       </c>
       <c r="J128" t="inlineStr"/>
@@ -25951,7 +25951,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
+          <t>1f504c07-c081-48d5-9f0b-4f793bd71da1</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://www.notion.so/128-728ff8a560cc4dcf9226efbea76ba060</t>
+          <t>https://www.notion.so/128-1f504c07c08148d59f0b4f793bd71da1</t>
         </is>
       </c>
       <c r="J129" t="inlineStr"/>
@@ -26150,7 +26150,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
+          <t>728ff8a5-60cc-4dcf-9226-efbea76ba060</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26173,7 +26173,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://www.notion.so/129-7a7ae9a01b1640f1baf46d11089719e6</t>
+          <t>https://www.notion.so/129-728ff8a560cc4dcf9226efbea76ba060</t>
         </is>
       </c>
       <c r="J130" t="inlineStr"/>
@@ -26349,7 +26349,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
+          <t>7a7ae9a0-1b16-40f1-baf4-6d11089719e6</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26372,7 +26372,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://www.notion.so/130-88d14c183b0140549f4e8500ffac3be7</t>
+          <t>https://www.notion.so/130-7a7ae9a01b1640f1baf46d11089719e6</t>
         </is>
       </c>
       <c r="J131" t="inlineStr"/>
@@ -26548,7 +26548,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+          <t>88d14c18-3b01-4054-9f4e-8500ffac3be7</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-07-24T15:57:00.000Z</t>
+          <t>2024-07-25T15:04:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -26571,7 +26571,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://www.notion.so/131-b6645ed00f114a66bd0b0121269a6719</t>
+          <t>https://www.notion.so/131-88d14c183b0140549f4e8500ffac3be7</t>
         </is>
       </c>
       <c r="J132" t="inlineStr"/>
@@ -26736,6 +26736,205 @@
       <c r="AU132" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '131', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '131', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>b6645ed0-0f11-4a66-bd0b-0121269a6719</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2024-06-25T09:26:00.000Z</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-07-25T15:04:00.000Z</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="b">
+        <v>0</v>
+      </c>
+      <c r="H133" t="b">
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/132-b6645ed00f114a66bd0b0121269a6719</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>f209a418-4aa2-4b65-9cfc-4a94b6af86b0</t>
+        </is>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>IynB</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S133" t="n">
+        <v>0</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>PSic</t>
+        </is>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="W133" t="n">
+        <v>22500000</v>
+      </c>
+      <c r="X133" t="inlineStr">
+        <is>
+          <t>SvP%5E</t>
+        </is>
+      </c>
+      <c r="Y133" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>V%3CuY</t>
+        </is>
+      </c>
+      <c r="AC133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AD133" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="AE133" t="inlineStr">
+        <is>
+          <t>%5Be%3DQ</t>
+        </is>
+      </c>
+      <c r="AF133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AG133" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH133" t="inlineStr">
+        <is>
+          <t>ccio</t>
+        </is>
+      </c>
+      <c r="AI133" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AJ133" t="inlineStr">
+        <is>
+          <t>2024-07-25</t>
+        </is>
+      </c>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr">
+        <is>
+          <t>iRq%5E</t>
+        </is>
+      </c>
+      <c r="AN133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO133" t="n">
+        <v>3500000</v>
+      </c>
+      <c r="AP133" t="inlineStr">
+        <is>
+          <t>oNis</t>
+        </is>
+      </c>
+      <c r="AQ133" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR133" t="n">
+        <v>19000000</v>
+      </c>
+      <c r="AS133" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT133" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU133" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '132', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '132', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/Notion data/Lũy kế ngày CẦN THƠ.xlsx
+++ b/Notion data/Lũy kế ngày CẦN THƠ.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-25T15:02:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:53:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:54:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17404,7 +17404,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -17603,7 +17603,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
@@ -17802,7 +17802,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -18001,7 +18001,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -18200,7 +18200,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -18399,7 +18399,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -18598,7 +18598,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -18797,7 +18797,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-07-25T15:03:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -18996,7 +18996,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -19394,7 +19394,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -19991,7 +19991,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -20190,7 +20190,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -20389,7 +20389,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -20588,7 +20588,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -20787,7 +20787,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -20986,7 +20986,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
@@ -21185,7 +21185,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -21583,7 +21583,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -21981,7 +21981,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
@@ -22578,7 +22578,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -22777,7 +22777,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -22976,7 +22976,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -23175,7 +23175,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -23573,7 +23573,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -23971,7 +23971,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -24170,7 +24170,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -24568,7 +24568,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -24767,7 +24767,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
@@ -24966,7 +24966,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -25165,7 +25165,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -25364,7 +25364,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -25563,7 +25563,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E127" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -25961,7 +25961,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -26160,7 +26160,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
@@ -26359,7 +26359,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E131" t="inlineStr"/>
@@ -26558,7 +26558,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E132" t="inlineStr"/>
@@ -26757,7 +26757,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2024-07-25T15:04:00.000Z</t>
+          <t>2024-07-25T16:55:00.000Z</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
